--- a/maps/IA/IA20C_candidates.xlsx
+++ b/maps/IA/IA20C_candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C6C13-7EDE-774D-B09D-8D83C4DA842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD807A-1BFB-1649-B60F-302C3EDC68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>IA20C_I099K01N04</t>
+  </si>
+  <si>
+    <t>0.000119</t>
+  </si>
+  <si>
+    <t>0.014604</t>
+  </si>
+  <si>
+    <t>0.013247</t>
+  </si>
+  <si>
+    <t>0.020793</t>
   </si>
 </sst>
 </file>
@@ -912,7 +924,7 @@
       </c>
       <c r="B4" s="22">
         <f>MIN(DATA!E$2:E$101)</f>
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="C4" s="8">
         <f>MIN(DATA!F$2:F$101)</f>
@@ -920,7 +932,7 @@
       </c>
       <c r="D4" s="8">
         <f>MIN(DATA!G$2:G$101)</f>
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(DATA!H$2:H$101)</f>
@@ -937,11 +949,11 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="D5" s="8">
         <f>MAX(DATA!G$2:G$101)</f>
@@ -949,7 +961,7 @@
       </c>
       <c r="E5" s="8">
         <f>MAX(DATA!H$2:H$101)</f>
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
@@ -962,19 +974,19 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.4450000000000011E-2</v>
+        <v>7.0679999999999962E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>0</v>
+        <v>1.2171000000000007E-3</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>1</v>
+        <v>0.99612658999999881</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0</v>
+        <v>3.0799260000000012E-2</v>
       </c>
       <c r="F6" s="8" t="e">
         <f>AVERAGE(DATA!I$2:I$101)</f>
@@ -987,19 +999,19 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="F7" s="8" t="e">
         <f>MEDIAN(DATA!I$2:I$101)</f>
@@ -1012,19 +1024,19 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>1.2204238846622176E-17</v>
+        <v>9.0612729054292691E-4</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>0</v>
+        <v>1.6465995539016425E-3</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>0</v>
+        <v>4.772691975058513E-3</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0</v>
+        <v>3.738950699036054E-2</v>
       </c>
       <c r="F8" s="13" t="e">
         <f>STDEV(DATA!I$2:I$101)</f>
@@ -1085,7 +1097,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,19 +1144,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>2166345.418085</v>
+        <v>2167290.03816</v>
       </c>
       <c r="E2" s="21">
-        <v>1.4449999999999999E-2</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1161,19 +1173,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>2166345.418085</v>
+        <v>2167290.03816</v>
       </c>
       <c r="E3" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="F3" s="22">
         <v>0</v>
@@ -1190,19 +1202,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2166345.418085</v>
+        <v>2167290.03816</v>
       </c>
       <c r="E4" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="F4" s="22">
         <v>0</v>
@@ -1219,19 +1231,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>2166345.418085</v>
+        <v>2167290.03816</v>
       </c>
       <c r="E5" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="F5" s="22">
         <v>0</v>
@@ -1248,31 +1260,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E6" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G6" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,1994 +1298,1994 @@
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E7" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G7" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E8" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G8" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E9" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G9" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E10" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G10" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E11" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G11" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E12" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G12" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E13" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G13" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E14" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G14" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E15" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G15" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E16" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G16" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E17" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G17" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E18" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G18" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E19" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G19" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E20" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G20" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E21" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G21" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E22" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G22" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E23" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G23" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E24" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G24" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E25" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G25" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E26" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G26" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E27" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G27" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E28" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G28" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E29" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G29" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E30" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G30" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E31" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G31" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E32" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G32" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E33" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G33" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H33" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E34" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G34" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H34" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E35" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G35" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E36" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G36" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E37" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G37" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E38" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G38" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H38" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E39" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G39" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E40" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G40" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H40" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E41" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G41" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E42" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G42" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H42" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E43" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G43" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H43" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E44" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G44" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H44" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E45" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G45" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H45" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E46" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G46" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E47" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G47" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H47" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E48" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G48" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H48" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E49" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G49" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E50" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G50" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H50" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E51" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G51" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H51" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E52" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G52" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H52" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E53" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G53" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H53" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E54" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G54" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H54" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E55" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G55" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H55" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E56" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G56" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H56" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E57" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G57" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H57" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E58" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G58" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H58" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E59" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G59" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H59" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E60" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G60" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H60" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2166345.418085</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E61" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>0</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G61" s="22">
-        <v>1</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H61" s="9">
-        <v>0</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2166345.418085</v>
+        <v>2167822.0064519998</v>
       </c>
       <c r="E62" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>0</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="G62" s="22">
-        <v>1</v>
+        <v>0.99276200000000003</v>
       </c>
       <c r="H62" s="9">
-        <v>0</v>
+        <v>6.0790999999999998E-2</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2166345.418085</v>
+        <v>2167822.0064519998</v>
       </c>
       <c r="E63" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>0</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="G63" s="22">
-        <v>1</v>
+        <v>0.99276200000000003</v>
       </c>
       <c r="H63" s="9">
-        <v>0</v>
+        <v>6.0790999999999998E-2</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2166345.418085</v>
+        <v>2167822.0064519998</v>
       </c>
       <c r="E64" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>0</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="G64" s="22">
-        <v>1</v>
+        <v>0.99276200000000003</v>
       </c>
       <c r="H64" s="9">
-        <v>0</v>
+        <v>6.0790999999999998E-2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2166345.418085</v>
+        <v>2167822.0064519998</v>
       </c>
       <c r="E65" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>0</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="G65" s="22">
-        <v>1</v>
+        <v>0.99276200000000003</v>
       </c>
       <c r="H65" s="9">
-        <v>0</v>
+        <v>6.0790999999999998E-2</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2166345.418085</v>
+        <v>2167822.0064519998</v>
       </c>
       <c r="E66" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>0</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="G66" s="22">
-        <v>1</v>
+        <v>0.99276200000000003</v>
       </c>
       <c r="H66" s="9">
-        <v>0</v>
+        <v>6.0790999999999998E-2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2166345.418085</v>
+        <v>2168866.4653190002</v>
       </c>
       <c r="E67" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>0</v>
+        <v>7.27E-4</v>
       </c>
       <c r="G67" s="22">
-        <v>1</v>
+        <v>0.99343499999999996</v>
       </c>
       <c r="H67" s="9">
-        <v>0</v>
+        <v>5.5552999999999998E-2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2166345.418085</v>
+        <v>2168866.4653190002</v>
       </c>
       <c r="E68" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>0</v>
+        <v>7.27E-4</v>
       </c>
       <c r="G68" s="22">
-        <v>1</v>
+        <v>0.99343499999999996</v>
       </c>
       <c r="H68" s="9">
-        <v>0</v>
+        <v>5.5552999999999998E-2</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2166345.418085</v>
+        <v>2168866.4653190002</v>
       </c>
       <c r="E69" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>0</v>
+        <v>7.27E-4</v>
       </c>
       <c r="G69" s="22">
-        <v>1</v>
+        <v>0.99343499999999996</v>
       </c>
       <c r="H69" s="9">
-        <v>0</v>
+        <v>5.5552999999999998E-2</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E70" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G70" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H70" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E71" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G71" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H71" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E72" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G72" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H72" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E73" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G73" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E74" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G74" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H74" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E75" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G75" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H75" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3287,747 +3299,747 @@
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E76" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G76" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H76" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E77" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G77" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H77" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E78" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G78" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H78" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E79" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G79" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H79" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E80" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G80" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H80" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E81" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G81" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H81" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E82" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G82" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H82" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E83" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G83" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H83" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E84" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G84" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H84" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E85" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G85" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H85" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E86" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G86" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H86" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E87" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G87" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H87" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E88" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G88" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H88" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E89" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G89" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H89" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E90" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G90" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H90" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E91" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G91" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E92" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G92" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H92" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E93" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G93" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H93" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E94" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G94" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H94" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E95" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G95" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H95" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E96" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F96" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G96" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H96" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E97" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G97" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H97" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E98" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G98" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H98" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E99" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G99" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H99" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E100" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G100" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H100" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="23">
-        <v>2166345.418085</v>
+        <v>2175090.032133</v>
       </c>
       <c r="E101" s="22">
-        <v>1.4449999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F101" s="22">
-        <v>0</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G101" s="22">
-        <v>1</v>
+        <v>0.98974700000000004</v>
       </c>
       <c r="H101" s="9">
-        <v>0</v>
+        <v>8.0133999999999997E-2</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/maps/IA/IA20C_candidates.xlsx
+++ b/maps/IA/IA20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD807A-1BFB-1649-B60F-302C3EDC68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C63E92-D25C-FF41-BE63-D8177BC4042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/maps/IA/IA20C_candidates.xlsx
+++ b/maps/IA/IA20C_candidates.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C63E92-D25C-FF41-BE63-D8177BC4042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D031CEA-0DC6-0847-B5A3-7263E5429439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="6700" yWindow="6880" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="ENERGIES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="IA20C_energies" localSheetId="2">ENERGIES!$A$1:$B$101</definedName>
     <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
     <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
   </definedNames>
@@ -42,7 +44,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{D051581C-4A58-5D48-8442-B68B899C6028}" name="IA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/IA/IA20C_energies.csv" comma="1">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -57,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/IA/IA20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -76,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -442,6 +452,15 @@
   </si>
   <si>
     <t>0.020793</t>
+  </si>
+  <si>
+    <t>MAP'</t>
+  </si>
+  <si>
+    <t>ENERGY'</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -453,7 +472,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,8 +495,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,6 +594,17 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,11 +624,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="2" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="3" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IA20C_energies" connectionId="1" xr16:uid="{6694AB9C-7A53-9940-8F6A-DD272D7FA487}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,19 +1029,19 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>7.0679999999999962E-3</v>
+        <v>7.0679999999999953E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.2171000000000007E-3</v>
+        <v>1.2171000000000005E-3</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.99612658999999881</v>
+        <v>0.99612658999999848</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>3.0799260000000012E-2</v>
+        <v>3.079926000000003E-2</v>
       </c>
       <c r="F6" s="8" t="e">
         <f>AVERAGE(DATA!I$2:I$101)</f>
@@ -1024,7 +1079,7 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>9.0612729054292691E-4</v>
+        <v>9.0612729054292615E-4</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
@@ -1032,11 +1087,11 @@
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>4.772691975058513E-3</v>
+        <v>4.7726919750585121E-3</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>3.738950699036054E-2</v>
+        <v>3.7389506990360512E-2</v>
       </c>
       <c r="F8" s="13" t="e">
         <f>STDEV(DATA!I$2:I$101)</f>
@@ -1091,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1111,9 +1166,12 @@
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1141,361 +1199,443 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="J1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="33">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2167822.0064519998</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F2" s="36">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.99276200000000003</v>
+      </c>
+      <c r="H2" s="37">
+        <v>6.0790999999999998E-2</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="39">
+        <v>2061980.622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2167822.0064519998</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.99276200000000003</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6.0790999999999998E-2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="30">
+        <v>2061980.622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2167822.0064519998</v>
+      </c>
+      <c r="E4" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.99276200000000003</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6.0790999999999998E-2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="30">
+        <v>2061980.622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2167822.0064519998</v>
+      </c>
+      <c r="E5" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.99276200000000003</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6.0790999999999998E-2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="30">
+        <v>2061980.622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2167822.0064519998</v>
+      </c>
+      <c r="E6" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.99276200000000003</v>
+      </c>
+      <c r="H6" s="9">
+        <v>6.0790999999999998E-2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2061980.622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2168866.4653190002</v>
+      </c>
+      <c r="E7" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>7.27E-4</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.99343499999999996</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5.5552999999999998E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="30">
+        <v>2065145.727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2168866.4653190002</v>
+      </c>
+      <c r="E8" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <v>7.27E-4</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.99343499999999996</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5.5552999999999998E-2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="30">
+        <v>2065145.727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2168866.4653190002</v>
+      </c>
+      <c r="E9" s="22">
+        <v>8.43E-3</v>
+      </c>
+      <c r="F9" s="22">
+        <v>7.27E-4</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.99343499999999996</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5.5552999999999998E-2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="30">
+        <v>2065145.727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="C10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
         <v>2167290.03816</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E10" s="21">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F10" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="K10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="30">
+        <v>2066976.4069999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
         <v>2167290.03816</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E11" s="22">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F11" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="K11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="30">
+        <v>2066976.4069999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
         <v>2167290.03816</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E12" s="22">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F12" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K12" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="30">
+        <v>2066976.4069999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
         <v>2167290.03816</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E13" s="22">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="K13" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="30">
+        <v>2066976.4069999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E6" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F6" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H6" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E7" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F7" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H7" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E8" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F8" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H8" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E9" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H9" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E10" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F10" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H10" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E11" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F11" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H11" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E12" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F12" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H12" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>2167411.8555450002</v>
-      </c>
-      <c r="E13" s="22">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="F13" s="22">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.99994000000000005</v>
-      </c>
-      <c r="H13" s="9">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1518,13 +1658,19 @@
       <c r="I14" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1547,13 +1693,19 @@
       <c r="I15" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1576,13 +1728,19 @@
       <c r="I16" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1605,13 +1763,19 @@
       <c r="I17" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1634,13 +1798,19 @@
       <c r="I18" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1663,13 +1833,19 @@
       <c r="I19" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1692,13 +1868,19 @@
       <c r="I20" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1721,13 +1903,19 @@
       <c r="I21" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1750,13 +1938,19 @@
       <c r="I22" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1779,13 +1973,19 @@
       <c r="I23" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1808,13 +2008,19 @@
       <c r="I24" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1837,13 +2043,19 @@
       <c r="I25" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1866,13 +2078,19 @@
       <c r="I26" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1895,13 +2113,19 @@
       <c r="I27" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1924,13 +2148,19 @@
       <c r="I28" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1953,13 +2183,19 @@
       <c r="I29" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1982,13 +2218,19 @@
       <c r="I30" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2011,13 +2253,19 @@
       <c r="I31" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2040,13 +2288,19 @@
       <c r="I32" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2069,13 +2323,19 @@
       <c r="I33" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2098,13 +2358,19 @@
       <c r="I34" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2127,13 +2393,19 @@
       <c r="I35" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2156,13 +2428,19 @@
       <c r="I36" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2185,13 +2463,19 @@
       <c r="I37" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2214,13 +2498,19 @@
       <c r="I38" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2243,13 +2533,19 @@
       <c r="I39" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2272,13 +2568,19 @@
       <c r="I40" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2301,13 +2603,19 @@
       <c r="I41" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K41" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2330,13 +2638,19 @@
       <c r="I42" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2359,13 +2673,19 @@
       <c r="I43" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2388,8 +2708,14 @@
       <c r="I44" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>58</v>
       </c>
@@ -2417,13 +2743,19 @@
       <c r="I45" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2446,13 +2778,19 @@
       <c r="I46" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2475,13 +2813,19 @@
       <c r="I47" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2504,13 +2848,19 @@
       <c r="I48" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2533,13 +2883,19 @@
       <c r="I49" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2562,13 +2918,19 @@
       <c r="I50" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K50" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2591,13 +2953,19 @@
       <c r="I51" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K51" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L51" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2620,13 +2988,19 @@
       <c r="I52" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2649,13 +3023,19 @@
       <c r="I53" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K53" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L53" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2678,13 +3058,19 @@
       <c r="I54" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K54" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2707,13 +3093,19 @@
       <c r="I55" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K55" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2736,13 +3128,19 @@
       <c r="I56" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L56" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2765,13 +3163,19 @@
       <c r="I57" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K57" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L57" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -2794,13 +3198,19 @@
       <c r="I58" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K58" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -2823,13 +3233,19 @@
       <c r="I59" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K59" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2852,13 +3268,19 @@
       <c r="I60" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K60" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L60" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -2881,245 +3303,299 @@
       <c r="I61" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K61" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2167822.0064519998</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E62" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>2.4499999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G62" s="22">
-        <v>0.99276200000000003</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H62" s="9">
-        <v>6.0790999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2167822.0064519998</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E63" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>2.4499999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G63" s="22">
-        <v>0.99276200000000003</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H63" s="9">
-        <v>6.0790999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L63" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2167822.0064519998</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E64" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>2.4499999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G64" s="22">
-        <v>0.99276200000000003</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H64" s="9">
-        <v>6.0790999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L64" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2167822.0064519998</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E65" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>2.4499999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G65" s="22">
-        <v>0.99276200000000003</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H65" s="9">
-        <v>6.0790999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2167822.0064519998</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E66" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>2.4499999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G66" s="22">
-        <v>0.99276200000000003</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H66" s="9">
-        <v>6.0790999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L66" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="23">
+        <v>2167411.8555450002</v>
+      </c>
+      <c r="E67" s="22">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="F67" s="22">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="G67" s="22">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H67" s="9">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L67" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>98</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="23">
+        <v>2167411.8555450002</v>
+      </c>
+      <c r="E68" s="22">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="F68" s="22">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="G68" s="22">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H68" s="9">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>99</v>
       </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="23">
-        <v>2168866.4653190002</v>
-      </c>
-      <c r="E67" s="22">
-        <v>8.43E-3</v>
-      </c>
-      <c r="F67" s="22">
-        <v>7.27E-4</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0.99343499999999996</v>
-      </c>
-      <c r="H67" s="9">
-        <v>5.5552999999999998E-2</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>22</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="23">
-        <v>2168866.4653190002</v>
-      </c>
-      <c r="E68" s="22">
-        <v>8.43E-3</v>
-      </c>
-      <c r="F68" s="22">
-        <v>7.27E-4</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.99343499999999996</v>
-      </c>
-      <c r="H68" s="9">
-        <v>5.5552999999999998E-2</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>30</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2168866.4653190002</v>
+        <v>2167411.8555450002</v>
       </c>
       <c r="E69" s="22">
-        <v>8.43E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>7.27E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G69" s="22">
-        <v>0.99343499999999996</v>
+        <v>0.99994000000000005</v>
       </c>
       <c r="H69" s="9">
-        <v>5.5552999999999998E-2</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L69" s="30">
+        <v>2067325.0190000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3142,13 +3618,19 @@
       <c r="I70" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K70" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3171,13 +3653,19 @@
       <c r="I71" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K71" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3200,13 +3688,19 @@
       <c r="I72" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K72" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3229,13 +3723,19 @@
       <c r="I73" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K73" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -3258,13 +3758,19 @@
       <c r="I74" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K74" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -3287,13 +3793,19 @@
       <c r="I75" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3316,13 +3828,19 @@
       <c r="I76" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K76" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -3345,13 +3863,19 @@
       <c r="I77" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K77" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -3374,13 +3898,19 @@
       <c r="I78" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K78" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -3403,13 +3933,19 @@
       <c r="I79" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K79" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -3432,13 +3968,19 @@
       <c r="I80" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K80" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L80" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -3461,13 +4003,19 @@
       <c r="I81" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K81" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -3490,13 +4038,19 @@
       <c r="I82" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K82" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L82" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -3519,13 +4073,19 @@
       <c r="I83" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K83" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L83" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -3548,13 +4108,19 @@
       <c r="I84" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K84" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -3577,13 +4143,19 @@
       <c r="I85" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K85" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L85" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -3606,13 +4178,19 @@
       <c r="I86" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K86" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L86" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -3635,13 +4213,19 @@
       <c r="I87" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K87" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L87" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -3664,13 +4248,19 @@
       <c r="I88" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K88" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -3693,13 +4283,19 @@
       <c r="I89" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K89" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -3722,13 +4318,19 @@
       <c r="I90" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K90" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L90" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -3751,13 +4353,19 @@
       <c r="I91" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K91" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L91" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -3780,13 +4388,19 @@
       <c r="I92" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K92" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L92" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -3809,13 +4423,19 @@
       <c r="I93" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K93" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L93" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -3838,13 +4458,19 @@
       <c r="I94" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K94" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L94" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -3867,13 +4493,19 @@
       <c r="I95" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K95" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L95" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -3896,13 +4528,19 @@
       <c r="I96" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K96" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L96" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -3925,13 +4563,19 @@
       <c r="I97" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K97" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L97" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -3954,13 +4598,19 @@
       <c r="I98" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K98" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L98" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -3983,13 +4633,19 @@
       <c r="I99" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K99" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L99" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -4012,13 +4668,19 @@
       <c r="I100" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K100" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L100" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -4040,6 +4702,842 @@
       </c>
       <c r="I101" s="1" t="s">
         <v>121</v>
+      </c>
+      <c r="K101" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" s="30">
+        <v>2071490.892</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L101">
+    <sortCondition ref="L2:L101"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CD20E-3691-684B-ABCE-6B4BECFE654F}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="23">
+        <v>2061980.6224690001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="23">
+        <v>2065145.7271789999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="23">
+        <v>2065145.7271789999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="23">
+        <v>2066976.407041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="23">
+        <v>2061980.6224690001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="23">
+        <v>2061980.6224690001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="23">
+        <v>2066976.407041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="23">
+        <v>2066976.407041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="23">
+        <v>2061980.6224690001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="23">
+        <v>2065145.7271789999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="23">
+        <v>2061980.6224690001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="23">
+        <v>2071490.8917940001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="23">
+        <v>2067325.0191629999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="23">
+        <v>2066976.407041</v>
       </c>
     </row>
   </sheetData>
